--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Epo</t>
+  </si>
+  <si>
+    <t>Ephb4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Epo</t>
-  </si>
-  <si>
-    <t>Ephb4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H2">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I2">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J2">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N2">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O2">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P2">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q2">
-        <v>13.5492795544575</v>
+        <v>2.463267091744</v>
       </c>
       <c r="R2">
-        <v>81.29567732674498</v>
+        <v>9.853068366976</v>
       </c>
       <c r="S2">
-        <v>0.2573986410766818</v>
+        <v>0.2212700781475371</v>
       </c>
       <c r="T2">
-        <v>0.2418484879849969</v>
+        <v>0.1927371146325745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H3">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I3">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J3">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P3">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q3">
-        <v>1.052836589062222</v>
+        <v>0.2585770319093333</v>
       </c>
       <c r="R3">
-        <v>9.475529301559998</v>
+        <v>1.551462191456</v>
       </c>
       <c r="S3">
-        <v>0.02000096803754194</v>
+        <v>0.02322742842199372</v>
       </c>
       <c r="T3">
-        <v>0.02818898261009883</v>
+        <v>0.03034834785527157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H4">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I4">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J4">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N4">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O4">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P4">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q4">
-        <v>0.00994541523111111</v>
+        <v>0.29632486328</v>
       </c>
       <c r="R4">
-        <v>0.08950873707999998</v>
+        <v>1.18529945312</v>
       </c>
       <c r="S4">
-        <v>0.000188935238596443</v>
+        <v>0.02661823635560432</v>
       </c>
       <c r="T4">
-        <v>0.000266281719226453</v>
+        <v>0.02318579228939534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H5">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I5">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J5">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N5">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O5">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P5">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q5">
-        <v>1.398820512874166</v>
+        <v>0.004286752073333334</v>
       </c>
       <c r="R5">
-        <v>8.392923077244999</v>
+        <v>0.02572051244</v>
       </c>
       <c r="S5">
-        <v>0.02657370066628711</v>
+        <v>0.000385069881152848</v>
       </c>
       <c r="T5">
-        <v>0.02496831101914337</v>
+        <v>0.0005031221919835596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H6">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I6">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J6">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N6">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O6">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P6">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q6">
-        <v>6.930397151801666</v>
+        <v>0.0009536491806666668</v>
       </c>
       <c r="R6">
-        <v>62.373574366215</v>
+        <v>0.005721895084000001</v>
       </c>
       <c r="S6">
-        <v>0.1316582776099404</v>
+        <v>8.566429090807591E-05</v>
       </c>
       <c r="T6">
-        <v>0.1855566636102821</v>
+        <v>0.0001119267123342755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H7">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I7">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J7">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N7">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O7">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P7">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q7">
-        <v>8.730338055246001</v>
+        <v>4.791819232056</v>
       </c>
       <c r="R7">
-        <v>34.92135222098401</v>
+        <v>19.167276928224</v>
       </c>
       <c r="S7">
-        <v>0.1658521504799181</v>
+        <v>0.4304389968508112</v>
       </c>
       <c r="T7">
-        <v>0.1038883801790775</v>
+        <v>0.3749335245547685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H8">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I8">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J8">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +936,22 @@
         <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P8">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q8">
-        <v>0.6783843600320001</v>
+        <v>0.503012604124</v>
       </c>
       <c r="R8">
-        <v>4.070306160192001</v>
+        <v>3.018075624744</v>
       </c>
       <c r="S8">
-        <v>0.01288741675880956</v>
+        <v>0.04518455939948914</v>
       </c>
       <c r="T8">
-        <v>0.01210885280556735</v>
+        <v>0.05903695843679514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.1339035</v>
+      </c>
+      <c r="H9">
+        <v>0.267807</v>
+      </c>
+      <c r="I9">
+        <v>0.5283200138882588</v>
+      </c>
+      <c r="J9">
+        <v>0.4802705082520798</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.180588</v>
-      </c>
-      <c r="H9">
-        <v>0.3611760000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.2808164433151605</v>
-      </c>
-      <c r="J9">
-        <v>0.2065446759743758</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N9">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O9">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P9">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q9">
-        <v>0.006408225376000001</v>
+        <v>0.5764438552200001</v>
       </c>
       <c r="R9">
-        <v>0.03844935225600001</v>
+        <v>2.30577542088</v>
       </c>
       <c r="S9">
-        <v>0.0001217384656406222</v>
+        <v>0.0517807335305614</v>
       </c>
       <c r="T9">
-        <v>0.0001143839133013403</v>
+        <v>0.04510356419535475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H10">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I10">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J10">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N10">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O10">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P10">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q10">
-        <v>0.9013155206460001</v>
+        <v>0.008339063635000001</v>
       </c>
       <c r="R10">
-        <v>3.605262082584</v>
+        <v>0.05003438181</v>
       </c>
       <c r="S10">
-        <v>0.01712248900490646</v>
+        <v>0.0007490804664983929</v>
       </c>
       <c r="T10">
-        <v>0.01072538186696098</v>
+        <v>0.0009787288612352991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H11">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I11">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J11">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N11">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O11">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P11">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q11">
-        <v>4.465529679948001</v>
+        <v>0.0018551437235</v>
       </c>
       <c r="R11">
-        <v>26.79317807968801</v>
+        <v>0.011130862341</v>
       </c>
       <c r="S11">
-        <v>0.0848326486058858</v>
+        <v>0.0001666436408985319</v>
       </c>
       <c r="T11">
-        <v>0.07970767720946864</v>
+        <v>0.0002177322039261507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H12">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I12">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J12">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N12">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O12">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P12">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q12">
-        <v>2.983885559648999</v>
+        <v>1.814831729824</v>
       </c>
       <c r="R12">
-        <v>17.903313357894</v>
+        <v>10.888990378944</v>
       </c>
       <c r="S12">
-        <v>0.05668552966931081</v>
+        <v>0.1630224996829212</v>
       </c>
       <c r="T12">
-        <v>0.05326100240392236</v>
+        <v>0.2130009159312922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H13">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I13">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J13">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1246,22 @@
         <v>11.269592</v>
       </c>
       <c r="O13">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P13">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q13">
-        <v>0.231860585808</v>
+        <v>0.1905086962293333</v>
       </c>
       <c r="R13">
-        <v>2.086745272272</v>
+        <v>1.714578266064</v>
       </c>
       <c r="S13">
-        <v>0.004404706498700044</v>
+        <v>0.01711299365129136</v>
       </c>
       <c r="T13">
-        <v>0.006207909270260713</v>
+        <v>0.03353908198998116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H14">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I14">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J14">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N14">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O14">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P14">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q14">
-        <v>0.002190225744</v>
+        <v>0.21831971288</v>
       </c>
       <c r="R14">
-        <v>0.019712031696</v>
+        <v>1.30991827728</v>
       </c>
       <c r="S14">
-        <v>4.160819974898931E-05</v>
+        <v>0.01961119851436961</v>
       </c>
       <c r="T14">
-        <v>5.864180258476744E-05</v>
+        <v>0.02562347684642172</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,46 +1346,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H15">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I15">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J15">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N15">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O15">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P15">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q15">
-        <v>0.308054779749</v>
+        <v>0.003158298873333334</v>
       </c>
       <c r="R15">
-        <v>1.848328678494</v>
+        <v>0.02842468986</v>
       </c>
       <c r="S15">
-        <v>0.005852184344257849</v>
+        <v>0.0002837033145362108</v>
       </c>
       <c r="T15">
-        <v>0.005498637945981174</v>
+        <v>0.0005560189479963587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,356 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H16">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I16">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J16">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N16">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O16">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P16">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q16">
-        <v>1.526244395562</v>
+        <v>0.0007026086606666667</v>
       </c>
       <c r="R16">
-        <v>13.736199560058</v>
+        <v>0.006323477946000001</v>
       </c>
       <c r="S16">
-        <v>0.02899440016641461</v>
+        <v>6.311385142679723E-05</v>
       </c>
       <c r="T16">
-        <v>0.04086415420229602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.361511</v>
-      </c>
-      <c r="I17">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J17">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>48.3439545</v>
-      </c>
-      <c r="N17">
-        <v>96.68790899999999</v>
-      </c>
-      <c r="O17">
-        <v>0.5906069762936997</v>
-      </c>
-      <c r="P17">
-        <v>0.5029826098832294</v>
-      </c>
-      <c r="Q17">
-        <v>5.825623778416499</v>
-      </c>
-      <c r="R17">
-        <v>34.953742670499</v>
-      </c>
-      <c r="S17">
-        <v>0.110670655067789</v>
-      </c>
-      <c r="T17">
-        <v>0.1039847393152327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.361511</v>
-      </c>
-      <c r="I18">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J18">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3.756530666666666</v>
-      </c>
-      <c r="N18">
-        <v>11.269592</v>
-      </c>
-      <c r="O18">
-        <v>0.04589267140722955</v>
-      </c>
-      <c r="P18">
-        <v>0.05862582876292385</v>
-      </c>
-      <c r="Q18">
-        <v>0.4526757192791111</v>
-      </c>
-      <c r="R18">
-        <v>4.074081473512</v>
-      </c>
-      <c r="S18">
-        <v>0.008599580112178002</v>
-      </c>
-      <c r="T18">
-        <v>0.01212008407699697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.361511</v>
-      </c>
-      <c r="I19">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J19">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.03548533333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.106456</v>
-      </c>
-      <c r="O19">
-        <v>0.0004335161581118491</v>
-      </c>
-      <c r="P19">
-        <v>0.0005537974424261163</v>
-      </c>
-      <c r="Q19">
-        <v>0.004276112779555556</v>
-      </c>
-      <c r="R19">
-        <v>0.038485015016</v>
-      </c>
-      <c r="S19">
-        <v>8.123425412579457E-05</v>
-      </c>
-      <c r="T19">
-        <v>0.0001144900073135557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.361511</v>
-      </c>
-      <c r="I20">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J20">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.9910045</v>
-      </c>
-      <c r="N20">
-        <v>9.982009</v>
-      </c>
-      <c r="O20">
-        <v>0.06097395438375338</v>
-      </c>
-      <c r="P20">
-        <v>0.05192766076571049</v>
-      </c>
-      <c r="Q20">
-        <v>0.6014343425998333</v>
-      </c>
-      <c r="R20">
-        <v>3.608606055599</v>
-      </c>
-      <c r="S20">
-        <v>0.01142558036830195</v>
-      </c>
-      <c r="T20">
-        <v>0.01073532993362497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.361511</v>
-      </c>
-      <c r="I21">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J21">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.727721</v>
-      </c>
-      <c r="N21">
-        <v>74.18316300000001</v>
-      </c>
-      <c r="O21">
-        <v>0.3020928817572056</v>
-      </c>
-      <c r="P21">
-        <v>0.3859101031457101</v>
-      </c>
-      <c r="Q21">
-        <v>2.979781048810334</v>
-      </c>
-      <c r="R21">
-        <v>26.818029439293</v>
-      </c>
-      <c r="S21">
-        <v>0.0566075553749647</v>
-      </c>
-      <c r="T21">
-        <v>0.07978160812366329</v>
+        <v>0.0001236943506694463</v>
       </c>
     </row>
   </sheetData>
